--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H2">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I2">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J2">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>3100.152111205341</v>
+        <v>3174.313021346921</v>
       </c>
       <c r="R2">
-        <v>3100.152111205341</v>
+        <v>28568.81719212229</v>
       </c>
       <c r="S2">
-        <v>0.03573958302567181</v>
+        <v>0.03593106121300602</v>
       </c>
       <c r="T2">
-        <v>0.03573958302567181</v>
+        <v>0.03593106121300602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H3">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I3">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J3">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>3299.930760968183</v>
+        <v>3345.843512042643</v>
       </c>
       <c r="R3">
-        <v>3299.930760968183</v>
+        <v>30112.59160838379</v>
       </c>
       <c r="S3">
-        <v>0.03804269764193484</v>
+        <v>0.03787266952940001</v>
       </c>
       <c r="T3">
-        <v>0.03804269764193484</v>
+        <v>0.03787266952940001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H4">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I4">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J4">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>2127.877775926087</v>
+        <v>2161.713029432722</v>
       </c>
       <c r="R4">
-        <v>2127.877775926087</v>
+        <v>19455.4172648945</v>
       </c>
       <c r="S4">
-        <v>0.02453088161910357</v>
+        <v>0.02446911903872096</v>
       </c>
       <c r="T4">
-        <v>0.02453088161910357</v>
+        <v>0.02446911903872097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H5">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I5">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J5">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>1649.910612686454</v>
+        <v>1686.082146452064</v>
       </c>
       <c r="R5">
-        <v>1649.910612686454</v>
+        <v>15174.73931806858</v>
       </c>
       <c r="S5">
-        <v>0.01902071743960916</v>
+        <v>0.01908530142015399</v>
       </c>
       <c r="T5">
-        <v>0.01902071743960916</v>
+        <v>0.01908530142015399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.1239329569191</v>
+        <v>19.389619</v>
       </c>
       <c r="H6">
-        <v>19.1239329569191</v>
+        <v>58.168857</v>
       </c>
       <c r="I6">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="J6">
-        <v>0.1299084396398113</v>
+        <v>0.1304684867767725</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>1090.752749837297</v>
+        <v>1158.226546240903</v>
       </c>
       <c r="R6">
-        <v>1090.752749837297</v>
+        <v>10424.03891616813</v>
       </c>
       <c r="S6">
-        <v>0.01257455991349188</v>
+        <v>0.0131103355754915</v>
       </c>
       <c r="T6">
-        <v>0.01257455991349188</v>
+        <v>0.0131103355754915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H7">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I7">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J7">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>3890.373896720337</v>
+        <v>3938.705781708995</v>
       </c>
       <c r="R7">
-        <v>3890.373896720337</v>
+        <v>35448.35203538095</v>
       </c>
       <c r="S7">
-        <v>0.04484952218318213</v>
+        <v>0.04458346659289329</v>
       </c>
       <c r="T7">
-        <v>0.04484952218318213</v>
+        <v>0.04458346659289327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H8">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I8">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J8">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>4141.075674013843</v>
+        <v>4151.541797218249</v>
       </c>
       <c r="R8">
-        <v>4141.075674013843</v>
+        <v>37363.87617496424</v>
       </c>
       <c r="S8">
-        <v>0.04773969552399317</v>
+        <v>0.04699262531484893</v>
       </c>
       <c r="T8">
-        <v>0.04773969552399317</v>
+        <v>0.04699262531484891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H9">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I9">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J9">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>2670.269024849748</v>
+        <v>2682.265910817305</v>
       </c>
       <c r="R9">
-        <v>2670.269024849748</v>
+        <v>24140.39319735574</v>
       </c>
       <c r="S9">
-        <v>0.03078374805208908</v>
+        <v>0.03036142308052577</v>
       </c>
       <c r="T9">
-        <v>0.03078374805208908</v>
+        <v>0.03036142308052577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H10">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I10">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J10">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>2070.469109021112</v>
+        <v>2092.100386448077</v>
       </c>
       <c r="R10">
-        <v>2070.469109021112</v>
+        <v>18828.90347803269</v>
       </c>
       <c r="S10">
-        <v>0.02386905544295322</v>
+        <v>0.02368115133690337</v>
       </c>
       <c r="T10">
-        <v>0.02386905544295322</v>
+        <v>0.02368115133690337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.9985803629814</v>
+        <v>24.05875033333333</v>
       </c>
       <c r="H11">
-        <v>23.9985803629814</v>
+        <v>72.17625099999999</v>
       </c>
       <c r="I11">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="J11">
-        <v>0.1630218080950532</v>
+        <v>0.1618860458129771</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>1368.783167253395</v>
+        <v>1437.134133757288</v>
       </c>
       <c r="R11">
-        <v>1368.783167253395</v>
+        <v>12934.20720381559</v>
       </c>
       <c r="S11">
-        <v>0.01577978689283563</v>
+        <v>0.01626737948780571</v>
       </c>
       <c r="T11">
-        <v>0.01577978689283563</v>
+        <v>0.01626737948780571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H12">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I12">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J12">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>7049.982437318177</v>
+        <v>7137.92228827019</v>
       </c>
       <c r="R12">
-        <v>7049.982437318177</v>
+        <v>64241.3005944317</v>
       </c>
       <c r="S12">
-        <v>0.08127453867097431</v>
+        <v>0.08079641829547414</v>
       </c>
       <c r="T12">
-        <v>0.08127453867097431</v>
+        <v>0.08079641829547411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H13">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I13">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J13">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>7504.294329656768</v>
+        <v>7523.634505188037</v>
       </c>
       <c r="R13">
-        <v>7504.294329656768</v>
+        <v>67712.71054669234</v>
       </c>
       <c r="S13">
-        <v>0.08651199703216168</v>
+        <v>0.08516241786246039</v>
       </c>
       <c r="T13">
-        <v>0.08651199703216168</v>
+        <v>0.08516241786246037</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H14">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I14">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J14">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>4838.956415982434</v>
+        <v>4860.938259669363</v>
       </c>
       <c r="R14">
-        <v>4838.956415982434</v>
+        <v>43748.44433702427</v>
       </c>
       <c r="S14">
-        <v>0.05578509646720897</v>
+        <v>0.05502251006320474</v>
       </c>
       <c r="T14">
-        <v>0.05578509646720897</v>
+        <v>0.05502251006320474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H15">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I15">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J15">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>3752.022618677866</v>
+        <v>3791.410378270729</v>
       </c>
       <c r="R15">
-        <v>3752.022618677866</v>
+        <v>34122.69340443656</v>
       </c>
       <c r="S15">
-        <v>0.04325456270669882</v>
+        <v>0.04291618295648334</v>
       </c>
       <c r="T15">
-        <v>0.04325456270669882</v>
+        <v>0.04291618295648333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.4892826682335</v>
+        <v>43.60048699999999</v>
       </c>
       <c r="H16">
-        <v>43.4892826682335</v>
+        <v>130.801461</v>
       </c>
       <c r="I16">
-        <v>0.2954217035382803</v>
+        <v>0.293378098951833</v>
       </c>
       <c r="J16">
-        <v>0.2954217035382803</v>
+        <v>0.2933780989518329</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>2480.454975746224</v>
+        <v>2604.447331968276</v>
       </c>
       <c r="R16">
-        <v>2480.454975746224</v>
+        <v>23440.02598771449</v>
       </c>
       <c r="S16">
-        <v>0.02859550866123649</v>
+        <v>0.02948056977421034</v>
       </c>
       <c r="T16">
-        <v>0.02859550866123649</v>
+        <v>0.02948056977421033</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H17">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I17">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J17">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>8771.494433032323</v>
+        <v>8923.388611129427</v>
       </c>
       <c r="R17">
-        <v>8771.494433032323</v>
+        <v>80310.49750016484</v>
       </c>
       <c r="S17">
-        <v>0.1011207006312642</v>
+        <v>0.1010066808968588</v>
       </c>
       <c r="T17">
-        <v>0.1011207006312642</v>
+        <v>0.1010066808968588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H18">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I18">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J18">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>9336.743250307993</v>
+        <v>9405.58214933511</v>
       </c>
       <c r="R18">
-        <v>9336.743250307993</v>
+        <v>84650.23934401598</v>
       </c>
       <c r="S18">
-        <v>0.1076370767026731</v>
+        <v>0.1064647833024094</v>
       </c>
       <c r="T18">
-        <v>0.1076370767026731</v>
+        <v>0.1064647833024094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H19">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I19">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J19">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>6020.565248474868</v>
+        <v>6076.844122696197</v>
       </c>
       <c r="R19">
-        <v>6020.565248474868</v>
+        <v>54691.59710426577</v>
       </c>
       <c r="S19">
-        <v>0.06940707547272019</v>
+        <v>0.06878573621634955</v>
       </c>
       <c r="T19">
-        <v>0.06940707547272019</v>
+        <v>0.06878573621634955</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H20">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I20">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J20">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>4668.216666489114</v>
+        <v>4739.786568589537</v>
       </c>
       <c r="R20">
-        <v>4668.216666489114</v>
+        <v>42658.07911730583</v>
       </c>
       <c r="S20">
-        <v>0.05381675193638968</v>
+        <v>0.05365115544285879</v>
       </c>
       <c r="T20">
-        <v>0.05381675193638968</v>
+        <v>0.05365115544285878</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>54.1087873923966</v>
+        <v>54.50663</v>
       </c>
       <c r="H21">
-        <v>54.1087873923966</v>
+        <v>163.51989</v>
       </c>
       <c r="I21">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="J21">
-        <v>0.3675597564990079</v>
+        <v>0.3667631393583046</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>3086.1491081135</v>
+        <v>3255.918840495566</v>
       </c>
       <c r="R21">
-        <v>3086.1491081135</v>
+        <v>29303.2695644601</v>
       </c>
       <c r="S21">
-        <v>0.03557815175596066</v>
+        <v>0.03685478349982803</v>
       </c>
       <c r="T21">
-        <v>0.03557815175596066</v>
+        <v>0.03685478349982802</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H22">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I22">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J22">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>1052.128811712031</v>
+        <v>1155.783260210093</v>
       </c>
       <c r="R22">
-        <v>1052.128811712031</v>
+        <v>10402.04934189083</v>
       </c>
       <c r="S22">
-        <v>0.0121292903286812</v>
+        <v>0.0130826792418711</v>
       </c>
       <c r="T22">
-        <v>0.0121292903286812</v>
+        <v>0.01308267924187109</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H23">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I23">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J23">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>1119.929637555602</v>
+        <v>1218.238370474428</v>
       </c>
       <c r="R23">
-        <v>1119.929637555602</v>
+        <v>10964.14533426985</v>
       </c>
       <c r="S23">
-        <v>0.01291092076406758</v>
+        <v>0.01378962854866022</v>
       </c>
       <c r="T23">
-        <v>0.01291092076406758</v>
+        <v>0.01378962854866021</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H24">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I24">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J24">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>722.1586023993851</v>
+        <v>787.0905345485551</v>
       </c>
       <c r="R24">
-        <v>722.1586023993851</v>
+        <v>7083.814810936996</v>
       </c>
       <c r="S24">
-        <v>0.00832528418036918</v>
+        <v>0.008909328723051262</v>
       </c>
       <c r="T24">
-        <v>0.00832528418036918</v>
+        <v>0.008909328723051262</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H25">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I25">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J25">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>559.9462316969801</v>
+        <v>613.9109492678538</v>
       </c>
       <c r="R25">
-        <v>559.9462316969801</v>
+        <v>5525.198543410684</v>
       </c>
       <c r="S25">
-        <v>0.006455246103993753</v>
+        <v>0.006949053779238841</v>
       </c>
       <c r="T25">
-        <v>0.006455246103993753</v>
+        <v>0.00694905377923884</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.49027535923095</v>
+        <v>7.059857333333333</v>
       </c>
       <c r="H26">
-        <v>6.49027535923095</v>
+        <v>21.179572</v>
       </c>
       <c r="I26">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011282</v>
       </c>
       <c r="J26">
-        <v>0.04408829222784726</v>
+        <v>0.04750422910011281</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>370.1793826212458</v>
+        <v>421.7160830308311</v>
       </c>
       <c r="R26">
-        <v>370.1793826212458</v>
+        <v>3795.44474727748</v>
       </c>
       <c r="S26">
-        <v>0.004267550850735545</v>
+        <v>0.004773538807291393</v>
       </c>
       <c r="T26">
-        <v>0.004267550850735545</v>
+        <v>0.004773538807291393</v>
       </c>
     </row>
   </sheetData>
